--- a/Database Schema/Table Schema CodeKids.xlsx
+++ b/Database Schema/Table Schema CodeKids.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruchi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CodeKids\trunk\Database Schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
   <si>
     <t>Foreign Key</t>
   </si>
@@ -356,18 +356,12 @@
     <t>table_grievance</t>
   </si>
   <si>
-    <t>table_link</t>
-  </si>
-  <si>
     <t>grievance_id – varchar(255)</t>
   </si>
   <si>
     <t>read_status – boolean</t>
   </si>
   <si>
-    <t>registration_token – boolean</t>
-  </si>
-  <si>
     <t>Eta – varchar(20)</t>
   </si>
   <si>
@@ -389,21 +383,9 @@
     <t>File – varchar(255)</t>
   </si>
   <si>
-    <t>Question – varchar(255)</t>
-  </si>
-  <si>
-    <t>Answer – varchar(255)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Primary Key </t>
   </si>
   <si>
-    <t>password – varchar(255)</t>
-  </si>
-  <si>
-    <t>username – varchar(255)</t>
-  </si>
-  <si>
     <t>phone – int</t>
   </si>
   <si>
@@ -419,15 +401,9 @@
     <t>year – int</t>
   </si>
   <si>
-    <t>subject – varchar(255)</t>
-  </si>
-  <si>
     <t>description – varchar(255)</t>
   </si>
   <si>
-    <t>priority – varchar(10)</t>
-  </si>
-  <si>
     <t>status – varchar(20)</t>
   </si>
   <si>
@@ -452,66 +428,9 @@
     <t>read_status - varchar(255)</t>
   </si>
   <si>
-    <t>created_by - varchar(255)</t>
-  </si>
-  <si>
-    <t>table_guidelines</t>
-  </si>
-  <si>
-    <t>id - varchar(255)</t>
-  </si>
-  <si>
-    <t>given_by - varchar (255)</t>
-  </si>
-  <si>
-    <t>timestamp - date</t>
-  </si>
-  <si>
-    <t>subject - varchar (255)</t>
-  </si>
-  <si>
-    <t>table_feedback</t>
-  </si>
-  <si>
-    <t>id - varchar (255)</t>
-  </si>
-  <si>
-    <t>grievance_id - varchar(255)</t>
-  </si>
-  <si>
-    <t>given_by - varchar(255)</t>
-  </si>
-  <si>
-    <t>given_to - varchar(255)</t>
-  </si>
-  <si>
-    <t>table_complaint</t>
-  </si>
-  <si>
-    <t>against - varchar (255)</t>
-  </si>
-  <si>
-    <t>description - varchar (255)</t>
-  </si>
-  <si>
-    <t>rating - int</t>
-  </si>
-  <si>
-    <t>guideline - varchar(255)</t>
-  </si>
-  <si>
-    <t>comment - varchar(255) - null</t>
-  </si>
-  <si>
     <t>documents – varchar(255) - null</t>
   </si>
   <si>
-    <t>document - varchar(255) - null</t>
-  </si>
-  <si>
-    <t>email – varchar(255)</t>
-  </si>
-  <si>
     <t>created_at  - timestamp</t>
   </si>
   <si>
@@ -536,9 +455,6 @@
     <t>created_At</t>
   </si>
   <si>
-    <t>table_faq</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -552,6 +468,15 @@
   </si>
   <si>
     <t>role</t>
+  </si>
+  <si>
+    <t>name – varchar(255)</t>
+  </si>
+  <si>
+    <t>name - varchar(255)</t>
+  </si>
+  <si>
+    <t>type – varchar(255)</t>
   </si>
 </sst>
 </file>
@@ -631,7 +556,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,19 +667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor rgb="FF3366FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF319E06"/>
-        <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5C62DE"/>
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
@@ -766,25 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FF666666"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2830C8"/>
-        <bgColor rgb="FF666666"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDD0E09"/>
-        <bgColor rgb="FF666666"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
@@ -808,19 +709,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -914,17 +802,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </left>
       <right style="thin">
@@ -962,99 +839,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1419,7 +1324,7 @@
   <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1442,789 +1347,757 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="D1" s="44" t="s">
+      <c r="A1" s="7"/>
+      <c r="D1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="D2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="33"/>
+      <c r="G3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="G4" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G5" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F6" s="1"/>
+      <c r="G6" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F8" s="11"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="J10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="P13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D21" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D22" s="1"/>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="D2" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="45"/>
-      <c r="G3" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="G4" s="50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G5" s="50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F6" s="2"/>
-      <c r="G6" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F8" s="12"/>
-    </row>
-    <row r="10" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="J10" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D11" s="5" t="s">
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="G23" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="J24" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="P26" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="5" t="s">
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G42" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D47" s="12"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="45"/>
+      <c r="M47" s="23"/>
+      <c r="P47" s="23"/>
+    </row>
+    <row r="48" spans="3:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="11"/>
+      <c r="D48" s="43"/>
+      <c r="G48" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="P48" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C49" s="11"/>
+      <c r="D49" s="42"/>
+      <c r="G49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="J49" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D12" s="43" t="s">
+      <c r="M49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D50" s="41"/>
+      <c r="G50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M50" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="P50" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D51" s="41"/>
+      <c r="G51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+      <c r="D52" s="41"/>
+      <c r="G52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G53" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G55" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="F56" s="39"/>
+      <c r="G56" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="F57" s="11"/>
+      <c r="G57" s="29"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="H58" s="12"/>
+    </row>
+    <row r="60" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G60" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M60" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G66" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="J66" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="M66" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D14" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="P17" s="43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D21" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D22" s="2"/>
-      <c r="G22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="G23" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="J24" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="P25" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="P26" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="4:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="G42" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="J47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="P47" s="24"/>
-    </row>
-    <row r="48" spans="4:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D48" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J48" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="P48" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D49" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P49" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D50" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J50" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="M50" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="P50" s="43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D51" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="G53" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="G54" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="G55" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="G56" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F57" s="12"/>
-      <c r="G57" s="41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="H58" s="13"/>
-    </row>
-    <row r="60" spans="4:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G60" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M60" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="G61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="G62" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="G63" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="G64" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G65" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G66" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="J66" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="M66" s="43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="M67" s="31"/>
-    </row>
-    <row r="69" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="J69" s="13"/>
-      <c r="M69" s="13"/>
-    </row>
-    <row r="70" spans="7:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G70" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="I70" s="12"/>
-      <c r="J70" s="48"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="48"/>
-    </row>
-    <row r="71" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G71" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I71" s="12"/>
-      <c r="J71" s="49"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="49"/>
-    </row>
-    <row r="72" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G72" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I72" s="12"/>
-      <c r="J72" s="47"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="47"/>
-    </row>
-    <row r="73" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G73" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I73" s="12"/>
-      <c r="J73" s="47"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="47"/>
-    </row>
-    <row r="74" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G74" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I74" s="12"/>
-      <c r="J74" s="47"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="47"/>
-      <c r="O74" s="28"/>
-    </row>
-    <row r="75" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G75" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I75" s="12"/>
-      <c r="J75" s="46"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="13"/>
-    </row>
-    <row r="76" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="M76" s="2"/>
-    </row>
-    <row r="82" spans="7:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G82" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="J82" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="M82" s="37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G83" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="J83" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="M83" s="36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G84" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="J84" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="M84" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G85" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="J85" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="M85" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G86" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="J86" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="M86" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G87" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="J87" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="M87" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G88" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J88" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="M88" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G89" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="J89" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="M89" s="40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="90" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G90" s="40" t="s">
-        <v>67</v>
-      </c>
+    </row>
+    <row r="67" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="M67" s="28"/>
+    </row>
+    <row r="69" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="M69" s="12"/>
+    </row>
+    <row r="70" spans="5:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="11"/>
+      <c r="G70" s="36"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="36"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="36"/>
+    </row>
+    <row r="71" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E71" s="12"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="37"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="37"/>
+    </row>
+    <row r="72" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F72" s="11"/>
+      <c r="G72" s="44"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="35"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="35"/>
+    </row>
+    <row r="73" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G73" s="41"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="35"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="35"/>
+    </row>
+    <row r="74" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G74" s="41"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="35"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="35"/>
+      <c r="O74" s="25"/>
+    </row>
+    <row r="75" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G75" s="28"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="34"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="12"/>
+    </row>
+    <row r="76" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="M76" s="1"/>
+    </row>
+    <row r="81" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="G81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="M81" s="12"/>
+    </row>
+    <row r="82" spans="6:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="11"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="46"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="46"/>
+    </row>
+    <row r="83" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F83" s="11"/>
+      <c r="G83" s="56"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="47"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="47"/>
+      <c r="N83" s="12"/>
+    </row>
+    <row r="84" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F84" s="11"/>
+      <c r="G84" s="52"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="48"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="49"/>
+    </row>
+    <row r="85" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F85" s="11"/>
+      <c r="G85" s="52"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="49"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="49"/>
+    </row>
+    <row r="86" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F86" s="11"/>
+      <c r="G86" s="52"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="49"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="49"/>
+    </row>
+    <row r="87" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F87" s="11"/>
+      <c r="G87" s="53"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="49"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="49"/>
+    </row>
+    <row r="88" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F88" s="11"/>
+      <c r="G88" s="52"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="50"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="49"/>
+    </row>
+    <row r="89" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F89" s="11"/>
+      <c r="G89" s="54"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="51"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="51"/>
+    </row>
+    <row r="90" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F90" s="11"/>
+      <c r="G90" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
